--- a/Price Tracker/products.xlsx
+++ b/Price Tracker/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpist\Desktop\Projects\Price Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66b97510e33847a9/Programming/Python/python-projects/Price Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD3E6AB-A417-491E-A0B1-53E945BCCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5DD3E6AB-A417-491E-A0B1-53E945BCCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9A93B9-8A84-488D-AFAB-2FC9B4F8FEDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>product</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Loveseat and Recliner</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,7 +629,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +735,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,7 +877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -875,20 +885,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,8 +909,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -909,6 +923,9 @@
       <c r="C2">
         <v>3599.97</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Price Tracker/products.xlsx
+++ b/Price Tracker/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66b97510e33847a9/Programming/Python/python-projects/Price Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5DD3E6AB-A417-491E-A0B1-53E945BCCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9A93B9-8A84-488D-AFAB-2FC9B4F8FEDA}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5DD3E6AB-A417-491E-A0B1-53E945BCCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB0EE456-485D-4F91-AAC9-812419B60B1C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>product</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Loveseat and Recliner</t>
-  </si>
-  <si>
-    <t>date_time</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -885,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,10 +890,9 @@
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,11 +902,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -923,9 +913,6 @@
       <c r="C2">
         <v>3599.97</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
